--- a/VersionRecords/Version 3.4.2/版本Bug和特性计划及评审表v3.4.2.xlsx
+++ b/VersionRecords/Version 3.4.2/版本Bug和特性计划及评审表v3.4.2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13060"/>
+    <workbookView xWindow="31140" yWindow="2460" windowWidth="25600" windowHeight="13060" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.4.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="115">
   <si>
     <t>No</t>
   </si>
@@ -195,13 +195,259 @@
   </si>
   <si>
     <t>修正负责人</t>
+  </si>
+  <si>
+    <t>蘑菇宝合同详情租客手机号和承租人手机号码显示租客手机号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>崔斌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+  </si>
+  <si>
+    <t>纪维玉、王云飞</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东端租金宝详细明细显示错误</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东App&amp;PC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙伟</t>
+  </si>
+  <si>
+    <t>闪电组</t>
+  </si>
+  <si>
+    <t>聚有财租金宝额度占用额度需要合同正式生效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网找房列表页底部友链SEO爬虫改造</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客PC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复租客APP-Android老版本首页底部无数据白板问题</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Fix Bug </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客APP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【BS】增加品牌录入房东视频文件的最大长度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业房东录入增加品牌名称校验</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙苏文</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS城市智能插件调整为下拉列表</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>张浩</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>签约人服务人拓展首页报表相关调整</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册用户明细列表页面查询优化</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋伟</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区地铁关系补全,根据地铁线新增的百度别名字段查询地铁站ID</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市地铁添加百度别名字段的维护</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>【房东手机号】统一屏蔽</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏国泰</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存或编辑小区时，搜索附近1.5KM内所有地铁线路进行数据关联</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓展员首页，样式问题，苹果浏览器表格错乱</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>王龙国</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销组</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectAccountTradeLogByMap慢查询优化</t>
+    <rPh sb="29" eb="30">
+      <t>you'h</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>façade</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>武孟華</t>
+    <rPh sb="0" eb="1">
+      <t>w'm'h</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹組</t>
+    <rPh sb="0" eb="1">
+      <t>jie'bao'zu</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <rPh sb="0" eb="1">
+      <t>shi'chao</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>提现出款流程变更</t>
+  </si>
+  <si>
+    <t>冯银鹏</t>
+  </si>
+  <si>
+    <t>架构组</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -334,6 +580,26 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -385,7 +651,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -541,6 +807,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -562,7 +852,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -863,6 +1153,30 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1242,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:U22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1332,20 +1646,42 @@
       <c r="A2" s="59">
         <v>1</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>57</v>
+      </c>
       <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
+      <c r="G2" s="63" t="s">
+        <v>57</v>
+      </c>
       <c r="H2" s="63"/>
       <c r="I2" s="62"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="73"/>
+      <c r="J2" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="63">
+        <v>42583</v>
+      </c>
+      <c r="O2" s="73" t="s">
+        <v>62</v>
+      </c>
       <c r="P2" s="74"/>
       <c r="Q2" s="74"/>
       <c r="R2" s="74"/>
@@ -1356,44 +1692,88 @@
       <c r="A3" s="64">
         <v>2</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="B3" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>57</v>
+      </c>
       <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
+      <c r="G3" s="63" t="s">
+        <v>57</v>
+      </c>
       <c r="H3" s="63"/>
       <c r="I3" s="62"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="73"/>
+      <c r="J3" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="63">
+        <v>42583</v>
+      </c>
+      <c r="O3" s="73" t="s">
+        <v>62</v>
+      </c>
       <c r="P3" s="75"/>
       <c r="Q3" s="75"/>
       <c r="R3" s="75"/>
       <c r="S3" s="80"/>
       <c r="T3" s="82"/>
     </row>
-    <row r="4" spans="1:20" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" s="54" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A4" s="64">
         <v>3</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>57</v>
+      </c>
       <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="G4" s="63" t="s">
+        <v>57</v>
+      </c>
       <c r="H4" s="63"/>
       <c r="I4" s="62"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="73"/>
+      <c r="J4" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="63">
+        <v>42583</v>
+      </c>
+      <c r="O4" s="73" t="s">
+        <v>62</v>
+      </c>
       <c r="P4" s="75"/>
       <c r="Q4" s="75"/>
       <c r="R4" s="75"/>
@@ -1404,263 +1784,549 @@
       <c r="A5" s="64">
         <v>4</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="80"/>
+      <c r="B5" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="67">
+        <v>42583</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="67">
+        <v>42583</v>
+      </c>
+      <c r="I5" s="61"/>
+      <c r="J5" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="67">
+        <v>42583</v>
+      </c>
+      <c r="O5" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="83"/>
     </row>
     <row r="6" spans="1:20" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="64">
         <v>5</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="80"/>
+      <c r="B6" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="67">
+        <v>42583</v>
+      </c>
+      <c r="G6" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="67">
+        <v>42583</v>
+      </c>
+      <c r="I6" s="61"/>
+      <c r="J6" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="67">
+        <v>42583</v>
+      </c>
+      <c r="O6" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="79"/>
       <c r="T6" s="83"/>
     </row>
     <row r="7" spans="1:20" s="52" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="64">
         <v>6</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="80"/>
+      <c r="B7" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="67">
+        <v>42583</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="67">
+        <v>42583</v>
+      </c>
+      <c r="I7" s="61"/>
+      <c r="J7" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="67">
+        <v>42583</v>
+      </c>
+      <c r="O7" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="79"/>
       <c r="T7" s="81"/>
     </row>
-    <row r="8" spans="1:20" s="52" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" s="52" customFormat="1" ht="16" x14ac:dyDescent="0.25">
       <c r="A8" s="64">
         <v>7</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
+      <c r="B8" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="67">
+        <v>42577</v>
+      </c>
+      <c r="G8" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="67">
+        <v>42577</v>
+      </c>
+      <c r="I8" s="61"/>
+      <c r="J8" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" s="67">
+        <v>42577</v>
+      </c>
+      <c r="O8" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="101"/>
       <c r="S8" s="80"/>
       <c r="T8" s="81"/>
     </row>
-    <row r="9" spans="1:20" s="52" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="52" customFormat="1" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="64">
         <v>8</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
+      <c r="B9" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="67">
+        <v>42576</v>
+      </c>
+      <c r="G9" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="67">
+        <v>42576</v>
+      </c>
+      <c r="I9" s="61"/>
+      <c r="J9" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="67">
+        <v>42572</v>
+      </c>
+      <c r="O9" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
       <c r="S9" s="80"/>
       <c r="T9" s="81"/>
     </row>
-    <row r="10" spans="1:20" s="52" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="52" customFormat="1" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="64">
         <v>9</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
+      <c r="B10" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="67">
+        <v>42578</v>
+      </c>
+      <c r="G10" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="67">
+        <v>42578</v>
+      </c>
+      <c r="I10" s="61"/>
+      <c r="J10" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" s="67">
+        <v>42577</v>
+      </c>
+      <c r="O10" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="101"/>
       <c r="S10" s="80"/>
       <c r="T10" s="81"/>
     </row>
-    <row r="11" spans="1:20" s="52" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="52" customFormat="1" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="64">
         <v>10</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="75"/>
+      <c r="B11" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="67">
+        <v>42577</v>
+      </c>
+      <c r="G11" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="67">
+        <v>42577</v>
+      </c>
+      <c r="I11" s="61"/>
+      <c r="J11" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" s="67">
+        <v>42577</v>
+      </c>
+      <c r="O11" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
       <c r="S11" s="80"/>
       <c r="T11" s="81"/>
     </row>
-    <row r="12" spans="1:20" s="52" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="52" customFormat="1" ht="32" x14ac:dyDescent="0.25">
       <c r="A12" s="64">
         <v>11</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
+      <c r="B12" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="67">
+        <v>42577</v>
+      </c>
+      <c r="G12" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="67">
+        <v>42577</v>
+      </c>
+      <c r="I12" s="61"/>
+      <c r="J12" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="67">
+        <v>42578</v>
+      </c>
+      <c r="O12" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="101"/>
       <c r="S12" s="80"/>
       <c r="T12" s="81"/>
     </row>
-    <row r="13" spans="1:20" s="52" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="52" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="64">
         <v>12</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="75"/>
+      <c r="B13" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="67">
+        <v>42578</v>
+      </c>
+      <c r="G13" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="67">
+        <v>42578</v>
+      </c>
+      <c r="I13" s="61"/>
+      <c r="J13" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="67">
+        <v>42578</v>
+      </c>
+      <c r="O13" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="101"/>
       <c r="S13" s="80"/>
       <c r="T13" s="81"/>
     </row>
-    <row r="14" spans="1:20" s="52" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="52" customFormat="1" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="64">
         <v>13</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
+      <c r="B14" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="67">
+        <v>42576</v>
+      </c>
+      <c r="G14" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="67">
+        <v>42576</v>
+      </c>
+      <c r="I14" s="61"/>
+      <c r="J14" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="67">
+        <v>42578</v>
+      </c>
+      <c r="O14" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="101"/>
       <c r="S14" s="80"/>
       <c r="T14" s="81"/>
     </row>
-    <row r="15" spans="1:20" s="52" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="52" customFormat="1" ht="32" x14ac:dyDescent="0.25">
       <c r="A15" s="64">
         <v>14</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
+      <c r="B15" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="67">
+        <v>42583</v>
+      </c>
+      <c r="G15" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="67">
+        <v>42583</v>
+      </c>
+      <c r="I15" s="61"/>
+      <c r="J15" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="N15" s="67">
+        <v>42583</v>
+      </c>
+      <c r="O15" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="101"/>
+      <c r="R15" s="101"/>
       <c r="S15" s="80"/>
       <c r="T15" s="81"/>
     </row>
@@ -1668,72 +2334,136 @@
       <c r="A16" s="64">
         <v>15</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
+      <c r="B16" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="67">
+        <v>42580</v>
+      </c>
+      <c r="G16" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="67">
+        <v>42580</v>
+      </c>
       <c r="I16" s="61"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
+      <c r="J16" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="N16" s="67">
+        <v>42580</v>
+      </c>
+      <c r="O16" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="101"/>
       <c r="S16" s="84"/>
       <c r="T16" s="81"/>
     </row>
-    <row r="17" spans="1:20" s="52" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="52" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A17" s="64">
         <v>16</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="84"/>
+      <c r="B17" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="63">
+        <v>42583</v>
+      </c>
+      <c r="G17" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="63">
+        <v>42583</v>
+      </c>
+      <c r="I17" s="62"/>
+      <c r="J17" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="M17" s="73"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="80"/>
       <c r="T17" s="81"/>
     </row>
     <row r="18" spans="1:20" s="52" customFormat="1" ht="16" x14ac:dyDescent="0.25">
       <c r="A18" s="64">
         <v>17</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="84"/>
+      <c r="B18" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="103" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="105">
+        <v>42580</v>
+      </c>
+      <c r="G18" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="105">
+        <v>42580</v>
+      </c>
+      <c r="I18" s="104"/>
+      <c r="J18" s="106" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="104" t="s">
+        <v>114</v>
+      </c>
+      <c r="L18" s="104"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="108"/>
       <c r="T18" s="81"/>
     </row>
     <row r="19" spans="1:20" s="52" customFormat="1" ht="16" x14ac:dyDescent="0.25">
@@ -7612,8 +8342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
